--- a/docs/Campaign_01_CPTs.xlsx
+++ b/docs/Campaign_01_CPTs.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/Campaign_01_CPTs.xlsx
+++ b/docs/Campaign_01_CPTs.xlsx
@@ -13,20 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,25 +361,25 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1">
+        <v>2</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -403,56 +389,672 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
